--- a/doc/MB LLC Gantt.xlsx
+++ b/doc/MB LLC Gantt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26930"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clair/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\Banana_tactics-main (54)\Banana_tactics-main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B4F051F-6EAA-41A5-8EBA-C630EA98B071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC26539-2FA6-461D-A78B-9435BD7087DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20120" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="137">
   <si>
     <t>Total</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>Post Mortum Presentation Prep</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Oct. 18</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -677,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -742,6 +751,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
@@ -780,6 +796,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -790,6 +826,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -820,6 +866,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -830,6 +886,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -840,6 +916,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -850,6 +936,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -860,6 +966,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -880,6 +1006,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -910,6 +1046,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -920,6 +1066,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -930,6 +1096,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1000,6 +1186,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1020,6 +1226,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1030,6 +1246,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1060,6 +1286,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1070,6 +1306,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1080,6 +1336,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1100,6 +1376,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1110,6 +1396,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1120,6 +1426,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1130,6 +1456,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1210,6 +1556,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1220,6 +1576,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1240,6 +1616,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1280,6 +1666,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1320,6 +1726,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1330,6 +1756,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1380,6 +1816,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1390,6 +1836,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1410,6 +1876,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1420,6 +1906,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1440,6 +1936,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1460,6 +1966,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1480,6 +1996,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1500,6 +2026,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1510,6 +2056,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1600,6 +2156,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1610,6 +2176,26 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1620,6 +2206,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1630,6 +2226,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1650,6 +2266,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1660,6 +2296,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1670,6 +2316,36 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
       <fill>
@@ -1710,6 +2386,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFFF00"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -1720,6 +2416,16 @@
     </dxf>
     <dxf>
       <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFFFF00"/>
       </font>
       <fill>
@@ -1740,17 +2446,77 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1760,7 +2526,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1770,17 +2536,47 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1790,7 +2586,7 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
@@ -1800,17 +2596,47 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFF00"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -1820,821 +2646,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2950,34 +2966,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="2.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" customWidth="1"/>
-    <col min="15" max="15" width="12.28515625" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" customWidth="1"/>
-    <col min="19" max="20" width="13.42578125" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" customWidth="1"/>
+    <col min="14" max="14" width="5.44140625" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" customWidth="1"/>
+    <col min="18" max="18" width="5.109375" customWidth="1"/>
+    <col min="19" max="20" width="13.44140625" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15.95" thickBot="1"/>
-    <row r="2" spans="2:21">
+    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C2" s="49" t="s">
         <v>0</v>
       </c>
@@ -3005,7 +3021,7 @@
       <c r="T2" s="50"/>
       <c r="U2" s="51"/>
     </row>
-    <row r="3" spans="2:21" ht="15.95" thickBot="1">
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
         <v>5</v>
       </c>
@@ -3052,16 +3068,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="16">
-        <f>(G4+K4 +O4+S4)</f>
+        <f t="shared" ref="C4:C10" si="0">(G4+K4 +O4+S4)</f>
         <v>9400</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" ref="D4:D9" si="0">(H4+L4 +P4+T4)</f>
+        <f t="shared" ref="D4:D9" si="1">(H4+L4 +P4+T4)</f>
         <v>300</v>
       </c>
       <c r="E4" s="18">
@@ -3115,21 +3131,21 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="13">
-        <f>(G5+K5 +O5+S5)</f>
+        <f t="shared" si="0"/>
         <v>8700</v>
       </c>
       <c r="D5" s="14">
-        <f t="shared" si="0"/>
-        <v>300</v>
+        <f t="shared" si="1"/>
+        <v>6050</v>
       </c>
       <c r="E5" s="15">
-        <f t="shared" ref="E5:E9" si="1">(C5-D5)</f>
-        <v>8400</v>
+        <f t="shared" ref="E5:E9" si="2">(C5-D5)</f>
+        <v>2650</v>
       </c>
       <c r="G5" s="13">
         <f>(Gantt!$B23)*100</f>
@@ -3137,22 +3153,22 @@
       </c>
       <c r="H5" s="14">
         <f>(Gantt!$C23)*100</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I5" s="15">
-        <f t="shared" ref="I5:I9" si="2">(G5-H5)</f>
-        <v>3700</v>
+        <f t="shared" ref="I5:I9" si="3">(G5-H5)</f>
+        <v>3100</v>
       </c>
       <c r="K5" s="13">
         <v>1000</v>
       </c>
       <c r="L5" s="14">
         <f>Meetings!B5*100</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M5" s="15">
-        <f t="shared" ref="M5:M9" si="3">(K5-L5)</f>
-        <v>700</v>
+        <f t="shared" ref="M5:M9" si="4">(K5-L5)</f>
+        <v>650</v>
       </c>
       <c r="O5" s="13">
         <f>(SA!C9)*100</f>
@@ -3160,38 +3176,38 @@
       </c>
       <c r="P5" s="14">
         <f>(SA!D9)*100</f>
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" ref="Q5:Q9" si="4">(O5-P5)</f>
-        <v>1000</v>
+        <f t="shared" ref="Q5:Q9" si="5">(O5-P5)</f>
+        <v>-100</v>
       </c>
       <c r="S5" s="13">
         <v>3000</v>
       </c>
       <c r="T5" s="14">
         <f>Overhead!C8*100</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" ref="U5:U9" si="5">(S5-T5)</f>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
+        <f t="shared" ref="U5:U9" si="6">(S5-T5)</f>
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="13">
-        <f>(G6+K6 +O6+S6)</f>
+        <f t="shared" si="0"/>
         <v>10300</v>
       </c>
       <c r="D6" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E6" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
       <c r="G6" s="13">
@@ -3203,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5300</v>
       </c>
       <c r="K6" s="13">
@@ -3214,7 +3230,7 @@
         <v>300</v>
       </c>
       <c r="M6" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="O6" s="13">
@@ -3226,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="S6" s="13">
@@ -3237,24 +3253,24 @@
         <v>0</v>
       </c>
       <c r="U6" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="13">
-        <f>(G7+K7 +O7+S7)</f>
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="D7" s="14">
-        <f t="shared" ref="D7:D8" si="6">(H7+L7 +P7+T7)</f>
+        <f t="shared" ref="D7:D8" si="7">(H7+L7 +P7+T7)</f>
         <v>400</v>
       </c>
       <c r="E7" s="15">
-        <f t="shared" ref="E7:E8" si="7">(C7-D7)</f>
+        <f t="shared" ref="E7:E8" si="8">(C7-D7)</f>
         <v>9200</v>
       </c>
       <c r="G7" s="13">
@@ -3266,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="15">
-        <f t="shared" ref="I7:I8" si="8">(G7-H7)</f>
+        <f t="shared" ref="I7:I8" si="9">(G7-H7)</f>
         <v>4600</v>
       </c>
       <c r="K7" s="13">
@@ -3277,7 +3293,7 @@
         <v>300</v>
       </c>
       <c r="M7" s="15">
-        <f t="shared" ref="M7:M8" si="9">(K7-L7)</f>
+        <f t="shared" ref="M7:M8" si="10">(K7-L7)</f>
         <v>700</v>
       </c>
       <c r="O7" s="13">
@@ -3289,7 +3305,7 @@
         <v>100</v>
       </c>
       <c r="Q7" s="15">
-        <f t="shared" ref="Q7:Q8" si="10">(O7-P7)</f>
+        <f t="shared" ref="Q7:Q8" si="11">(O7-P7)</f>
         <v>900</v>
       </c>
       <c r="S7" s="13">
@@ -3300,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="U7" s="15">
-        <f t="shared" ref="U7:U8" si="11">(S7-T7)</f>
+        <f t="shared" ref="U7:U8" si="12">(S7-T7)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="13">
-        <f>(G8+K8 +O8+S8)</f>
+        <f t="shared" si="0"/>
         <v>8600</v>
       </c>
       <c r="D8" s="14">
-        <f t="shared" si="6"/>
-        <v>300</v>
+        <f t="shared" si="7"/>
+        <v>350</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="7"/>
-        <v>8300</v>
+        <f t="shared" si="8"/>
+        <v>8250</v>
       </c>
       <c r="G8" s="13">
         <f>(Gantt!$B65)*100</f>
@@ -3329,7 +3345,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3600</v>
       </c>
       <c r="K8" s="13">
@@ -3337,11 +3353,11 @@
       </c>
       <c r="L8" s="14">
         <f>Meetings!B8*100</f>
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="9"/>
-        <v>700</v>
+        <f t="shared" si="10"/>
+        <v>650</v>
       </c>
       <c r="O8" s="13">
         <f>(SA!C21)*100</f>
@@ -3352,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="Q8" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="S8" s="13">
@@ -3363,24 +3379,24 @@
         <v>0</v>
       </c>
       <c r="U8" s="15">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="13">
-        <f>(G9+K9 +O9+S9)</f>
+        <f t="shared" si="0"/>
         <v>9600</v>
       </c>
       <c r="D9" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>300</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9300</v>
       </c>
       <c r="G9" s="13">
@@ -3392,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4600</v>
       </c>
       <c r="K9" s="13">
@@ -3403,7 +3419,7 @@
         <v>300</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="O9" s="13">
@@ -3415,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q9" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="S9" s="13">
@@ -3426,25 +3442,25 @@
         <v>0</v>
       </c>
       <c r="U9" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15.95" thickBot="1">
+    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="38">
-        <f>(G10+K10 +O10+S10)</f>
+        <f t="shared" si="0"/>
         <v>9100</v>
       </c>
       <c r="D10" s="39">
-        <f t="shared" ref="D10" si="12">(H10+L10 +P10+T10)</f>
-        <v>400</v>
+        <f t="shared" ref="D10" si="13">(H10+L10 +P10+T10)</f>
+        <v>1500</v>
       </c>
       <c r="E10" s="23">
-        <f t="shared" ref="E10" si="13">(C10-D10)</f>
-        <v>8700</v>
+        <f t="shared" ref="E10" si="14">(C10-D10)</f>
+        <v>7600</v>
       </c>
       <c r="G10" s="38">
         <f>(Gantt!$B93)*100</f>
@@ -3455,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="23">
-        <f t="shared" ref="I10" si="14">(G10-H10)</f>
+        <f t="shared" ref="I10" si="15">(G10-H10)</f>
         <v>4100</v>
       </c>
       <c r="K10" s="38">
@@ -3466,7 +3482,7 @@
         <v>300</v>
       </c>
       <c r="M10" s="23">
-        <f t="shared" ref="M10" si="15">(K10-L10)</f>
+        <f t="shared" ref="M10" si="16">(K10-L10)</f>
         <v>700</v>
       </c>
       <c r="O10" s="38">
@@ -3475,11 +3491,11 @@
       </c>
       <c r="P10" s="39">
         <f>(SA!D30)*100</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="Q10" s="23">
-        <f t="shared" ref="Q10" si="16">(O10-P10)</f>
-        <v>900</v>
+        <f t="shared" ref="Q10" si="17">(O10-P10)</f>
+        <v>-200</v>
       </c>
       <c r="S10" s="38">
         <v>3000</v>
@@ -3489,11 +3505,11 @@
         <v>0</v>
       </c>
       <c r="U10" s="23">
-        <f t="shared" ref="U10" si="17">(S10-T10)</f>
+        <f t="shared" ref="U10" si="18">(S10-T10)</f>
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="15.95" thickBot="1">
+    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>0</v>
       </c>
@@ -3503,11 +3519,11 @@
       </c>
       <c r="D11" s="21">
         <f>SUM(D4:D10)</f>
-        <v>2300</v>
+        <v>9200</v>
       </c>
       <c r="E11" s="22">
         <f>SUM(E4:E10)</f>
-        <v>63000</v>
+        <v>56100</v>
       </c>
       <c r="G11" s="20">
         <f>SUM(G4:G10)</f>
@@ -3515,11 +3531,11 @@
       </c>
       <c r="H11" s="21">
         <f>SUM(H4:H10)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I11" s="22">
         <f>SUM(I4:I10)</f>
-        <v>30300</v>
+        <v>29700</v>
       </c>
       <c r="K11" s="20">
         <f>SUM(K4:K10)</f>
@@ -3527,11 +3543,11 @@
       </c>
       <c r="L11" s="21">
         <f>SUM(L4:L10)</f>
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="M11" s="22">
         <f>SUM(M4:M10)</f>
-        <v>4900</v>
+        <v>4800</v>
       </c>
       <c r="O11" s="20">
         <f>SUM(O4:O10)</f>
@@ -3539,11 +3555,11 @@
       </c>
       <c r="P11" s="21">
         <f>SUM(P4:P10)</f>
-        <v>200</v>
+        <v>2400</v>
       </c>
       <c r="Q11" s="22">
         <f>SUM(Q4:Q10)</f>
-        <v>6800</v>
+        <v>4600</v>
       </c>
       <c r="S11" s="20">
         <f>SUM(S4:S10)</f>
@@ -3551,11 +3567,11 @@
       </c>
       <c r="T11" s="21">
         <f>SUM(T4:T10)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="U11" s="22">
         <f>SUM(U4:U10)</f>
-        <v>21000</v>
+        <v>17000</v>
       </c>
     </row>
   </sheetData>
@@ -3575,19 +3591,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BK95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X61" workbookViewId="0">
-      <selection activeCell="AK77" sqref="AK77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="4" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A1" s="40"/>
       <c r="B1" s="40" t="s">
         <v>15</v>
@@ -3666,7 +3682,7 @@
       <c r="BJ1" s="40"/>
       <c r="BK1" s="40"/>
     </row>
-    <row r="2" spans="1:63" s="2" customFormat="1">
+    <row r="2" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3906,7 +3922,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3941,7 +3957,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="4" spans="1:63">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -3968,7 +3984,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3987,7 +4003,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="6" spans="1:63">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4022,7 +4038,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="7" spans="1:63">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -4049,7 +4065,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="8" spans="1:63">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>27</v>
       </c>
@@ -4076,7 +4092,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="9" spans="1:63">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -4103,7 +4119,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -4146,7 +4162,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="11" spans="1:63">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -4165,7 +4181,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -4192,7 +4208,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="13" spans="1:63">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4205,18 +4221,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:63" s="2" customFormat="1">
+    <row r="14" spans="1:63" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:63">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>33</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
@@ -4229,7 +4248,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="16" spans="1:63">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -4272,13 +4291,16 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="17" spans="1:43">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>35</v>
       </c>
       <c r="B17">
         <v>8</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17" t="s">
         <v>21</v>
       </c>
@@ -4315,13 +4337,16 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="18" spans="1:43">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>5</v>
       </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
@@ -4346,13 +4371,16 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="19" spans="1:43">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>37</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
@@ -4365,7 +4393,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="20" spans="1:43">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -4384,7 +4412,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="21" spans="1:43">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -4415,7 +4443,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="22" spans="1:43">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -4446,7 +4474,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="23" spans="1:43">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -4456,15 +4484,15 @@
       </c>
       <c r="C23">
         <f>SUM(C15:C22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:43" s="2" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:43">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -4483,7 +4511,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="26" spans="1:43">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4502,7 +4530,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="27" spans="1:43">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4533,7 +4561,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="28" spans="1:43">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -4560,7 +4588,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="29" spans="1:43">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -4595,7 +4623,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="30" spans="1:43">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -4630,7 +4658,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="31" spans="1:43">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -4665,7 +4693,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="32" spans="1:43">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -4708,7 +4736,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="33" spans="1:57">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -4759,7 +4787,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="34" spans="1:57">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -4786,7 +4814,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="35" spans="1:57">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -4799,12 +4827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:57" s="2" customFormat="1">
+    <row r="36" spans="1:57" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:57">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -4827,7 +4855,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="38" spans="1:57">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -4850,7 +4878,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="39" spans="1:57">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -4873,7 +4901,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="40" spans="1:57">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -4896,7 +4924,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="41" spans="1:57">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -4919,7 +4947,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="42" spans="1:57">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -4934,7 +4962,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="43" spans="1:57">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -4957,7 +4985,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="44" spans="1:57">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -4976,7 +5004,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="45" spans="1:57">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -4995,7 +5023,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="46" spans="1:57">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -5018,7 +5046,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="47" spans="1:57">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -5041,7 +5069,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="48" spans="1:57">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -5064,7 +5092,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -5087,7 +5115,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -5114,7 +5142,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -5145,7 +5173,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -5164,7 +5192,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>32</v>
       </c>
@@ -5177,12 +5205,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:50" s="2" customFormat="1">
+    <row r="54" spans="1:50" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>67</v>
       </c>
@@ -5221,7 +5249,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -5252,7 +5280,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>69</v>
       </c>
@@ -5271,7 +5299,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>70</v>
       </c>
@@ -5290,7 +5318,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -5313,7 +5341,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>72</v>
       </c>
@@ -5336,7 +5364,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>73</v>
       </c>
@@ -5363,7 +5391,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -5386,7 +5414,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>75</v>
       </c>
@@ -5409,7 +5437,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -5436,7 +5464,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="65" spans="1:43">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -5449,12 +5477,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:43" s="2" customFormat="1">
+    <row r="66" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:43">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>77</v>
       </c>
@@ -5488,7 +5516,7 @@
       <c r="K67" s="48"/>
       <c r="L67" s="48"/>
     </row>
-    <row r="68" spans="1:43">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>78</v>
       </c>
@@ -5503,7 +5531,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="69" spans="1:43">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>79</v>
       </c>
@@ -5522,7 +5550,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="70" spans="1:43">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>80</v>
       </c>
@@ -5561,7 +5589,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="71" spans="1:43">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -5576,7 +5604,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="72" spans="1:43">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>82</v>
       </c>
@@ -5591,7 +5619,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="73" spans="1:43">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>83</v>
       </c>
@@ -5618,7 +5646,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="74" spans="1:43">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -5645,7 +5673,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="75" spans="1:43">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -5664,7 +5692,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="76" spans="1:43">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -5679,7 +5707,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="77" spans="1:43">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>87</v>
       </c>
@@ -5694,7 +5722,7 @@
       <c r="AJ77" s="48"/>
       <c r="AK77" s="48"/>
     </row>
-    <row r="78" spans="1:43">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>88</v>
       </c>
@@ -5709,7 +5737,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="79" spans="1:43">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>32</v>
       </c>
@@ -5722,12 +5750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:43" s="2" customFormat="1">
+    <row r="80" spans="1:43" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="81" spans="1:45">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>89</v>
       </c>
@@ -5746,7 +5774,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="82" spans="1:45">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>90</v>
       </c>
@@ -5773,7 +5801,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="83" spans="1:45">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>91</v>
       </c>
@@ -5792,7 +5820,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="84" spans="1:45">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -5819,7 +5847,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="85" spans="1:45">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>93</v>
       </c>
@@ -5846,7 +5874,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="86" spans="1:45">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>94</v>
       </c>
@@ -5873,7 +5901,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="87" spans="1:45">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>95</v>
       </c>
@@ -5900,7 +5928,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="88" spans="1:45">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>96</v>
       </c>
@@ -5927,7 +5955,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="89" spans="1:45">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>97</v>
       </c>
@@ -5954,7 +5982,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="90" spans="1:45">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>98</v>
       </c>
@@ -5977,7 +6005,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="91" spans="1:45">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>99</v>
       </c>
@@ -6000,7 +6028,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="92" spans="1:45">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>100</v>
       </c>
@@ -6023,7 +6051,7 @@
         <v>planned</v>
       </c>
     </row>
-    <row r="93" spans="1:45">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>32</v>
       </c>
@@ -6036,7 +6064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:45" s="4" customFormat="1">
+    <row r="94" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>101</v>
       </c>
@@ -6046,10 +6074,10 @@
       </c>
       <c r="C94" s="4">
         <f>SUM(C13,C23,C35,C53, C65, C79, C93)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:45" s="4" customFormat="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>102</v>
       </c>
@@ -6059,31 +6087,31 @@
       </c>
       <c r="C95" s="44">
         <f>C94*100</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="D95" s="44"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3:D12 D67:D78">
-    <cfRule type="cellIs" dxfId="188" priority="271" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="188" priority="273" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="187" priority="272" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="273" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="186" priority="271" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:D22">
-    <cfRule type="cellIs" dxfId="185" priority="268" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="185" priority="270" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="184" priority="269" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="183" priority="270" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="183" priority="268" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25:D34">
@@ -6098,14 +6126,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37:D52">
-    <cfRule type="cellIs" dxfId="179" priority="262" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="179" priority="264" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="178" priority="263" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="264" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="177" priority="262" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D64">
@@ -6120,14 +6148,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81:D92">
-    <cfRule type="cellIs" dxfId="173" priority="151" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="173" priority="153" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="172" priority="152" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="171" priority="153" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="171" priority="151" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D100:D111">
@@ -6141,7 +6169,7 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:BR45 AW76:BA78 E66:BR74">
+  <conditionalFormatting sqref="E3:BR45 E66:BR74 AW76:BA78">
     <cfRule type="cellIs" dxfId="167" priority="274" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
@@ -6153,14 +6181,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:BR63">
-    <cfRule type="cellIs" dxfId="164" priority="208" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="164" priority="210" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="163" priority="209" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="162" priority="210" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="162" priority="208" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E80:BR89">
@@ -6186,25 +6214,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:I3">
-    <cfRule type="cellIs" dxfId="155" priority="259" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="153" priority="261" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="153" priority="259" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H4">
-    <cfRule type="cellIs" dxfId="152" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="258" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="256" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="257" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="258" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
@@ -6222,11 +6250,11 @@
     <cfRule type="cellIs" dxfId="146" priority="253" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="255" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="144" priority="254" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="144" priority="255" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:M7">
@@ -6241,11 +6269,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:N4">
-    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="140" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="139" priority="139" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="139" priority="140" operator="equal">
-      <formula>$G$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="138" priority="141" operator="equal">
       <formula>$F$1</formula>
@@ -6285,14 +6313,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6">
-    <cfRule type="cellIs" dxfId="128" priority="133" operator="equal">
-      <formula>$H$1</formula>
+    <cfRule type="cellIs" dxfId="128" priority="135" operator="equal">
+      <formula>$F$1</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="127" priority="134" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
-      <formula>$F$1</formula>
+    <cfRule type="cellIs" dxfId="126" priority="133" operator="equal">
+      <formula>$H$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:V6">
@@ -6307,25 +6335,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U10:AG10">
-    <cfRule type="cellIs" dxfId="122" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="240" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="121" priority="238" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="239" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="240" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Z7">
-    <cfRule type="cellIs" dxfId="119" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="128" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="129" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="117" priority="127" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="128" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="129" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB8:AD8">
@@ -6340,14 +6368,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB46:AD46">
-    <cfRule type="cellIs" dxfId="113" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="93" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="112" priority="91" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="92" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="93" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE47:AG47">
@@ -6361,399 +6389,399 @@
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AF75:AG75">
+    <cfRule type="cellIs" dxfId="107" priority="13" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="15" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AF9:AH9">
-    <cfRule type="cellIs" dxfId="107" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="121" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="122" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="123" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11">
-    <cfRule type="cellIs" dxfId="104" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="232" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="233" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="234" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH48:AJ48">
-    <cfRule type="cellIs" dxfId="101" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="87" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="85" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="87" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI12">
-    <cfRule type="cellIs" dxfId="98" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="235" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="236" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="237" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ9:AL10">
-    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="106" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="107" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="108" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK75:AL75">
-    <cfRule type="cellIs" dxfId="92" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="50" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="51" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="87" priority="49" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="50" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="51" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK49:AM49">
-    <cfRule type="cellIs" dxfId="89" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="83" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK90:AM90">
-    <cfRule type="cellIs" dxfId="86" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="25" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="27" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="26" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="27" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK64:AN64">
-    <cfRule type="cellIs" dxfId="83" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="59" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="58" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="59" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="60" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM10:AN10">
-    <cfRule type="cellIs" dxfId="80" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="115" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="116" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="117" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN91:AP91">
-    <cfRule type="cellIs" dxfId="77" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="22" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="23" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN50:AQ50">
-    <cfRule type="cellIs" dxfId="74" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="77" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="78" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11:AR11">
-    <cfRule type="cellIs" dxfId="71" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="110" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="67" priority="111" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="109" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="110" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="111" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP10">
-    <cfRule type="cellIs" dxfId="68" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="105" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="103" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="104" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="105" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP76:AP77">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP75:AQ75">
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ78">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+      <formula>$H$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ92:AS92">
-    <cfRule type="cellIs" dxfId="65" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="21" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11">
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="100" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="101" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="102" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR51:AV51">
-    <cfRule type="cellIs" dxfId="59" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="66" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="65" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="64" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="65" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="66" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS46:AT46">
-    <cfRule type="cellIs" dxfId="56" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="221" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="220" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="221" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="222" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS64:AT64">
-    <cfRule type="cellIs" dxfId="53" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="204" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="202" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="203" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="204" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS90:AT90">
-    <cfRule type="cellIs" dxfId="50" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="150" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="148" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="149" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="150" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS109:AT109">
-    <cfRule type="cellIs" dxfId="47" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="168" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="166" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="167" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="168" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT12">
-    <cfRule type="cellIs" dxfId="44" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="97" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="98" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="99" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU76:AU77">
-    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU47:AV47">
-    <cfRule type="cellIs" dxfId="38" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="217" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="218" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="219" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU75:AV75">
-    <cfRule type="cellIs" dxfId="35" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="183" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="181" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="182" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="183" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU91:AV91">
-    <cfRule type="cellIs" dxfId="32" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="147" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="146" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="145" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="146" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="147" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU110:AV110">
-    <cfRule type="cellIs" dxfId="29" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="163" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="165" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="164" operator="equal">
       <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="165" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV12">
-    <cfRule type="cellIs" dxfId="26" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="94" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="95" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="96" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV78">
-    <cfRule type="cellIs" dxfId="23" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="29" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="28" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="29" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="30" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW48:BA52">
-    <cfRule type="cellIs" dxfId="20" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="61" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="62" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="63" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW92:BA92">
-    <cfRule type="cellIs" dxfId="17" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="144" operator="equal">
+      <formula>$F$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="143" operator="equal">
+      <formula>$G$1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="142" operator="equal">
       <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="143" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="144" operator="equal">
-      <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW111:BA111">
-    <cfRule type="cellIs" dxfId="14" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="160" operator="equal">
       <formula>$H$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="161" operator="equal">
       <formula>$G$1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="162" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF75:AG75">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="14" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP76:AP77">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AP75:AQ75">
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
-      <formula>$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AQ78">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>$H$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>$G$1</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="162" operator="equal">
       <formula>$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6772,12 +6800,12 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>103</v>
       </c>
@@ -6790,7 +6818,9 @@
       <c r="E1" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>135</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -6798,7 +6828,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="62.25" customHeight="1">
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>107</v>
       </c>
@@ -6811,7 +6841,9 @@
       <c r="E2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="54" t="s">
+        <v>136</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -6819,7 +6851,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>111</v>
       </c>
@@ -6832,7 +6864,9 @@
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4">
+        <v>0.5</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -6840,7 +6874,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -6857,7 +6891,9 @@
       <c r="E4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="52" t="s">
+        <v>134</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -6865,13 +6901,13 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>112</v>
@@ -6882,13 +6918,15 @@
       <c r="E5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -6913,7 +6951,7 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -6934,17 +6972,17 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>112</v>
@@ -6955,7 +6993,9 @@
       <c r="E8" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -6963,7 +7003,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -6988,7 +7028,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>113</v>
       </c>
@@ -7013,13 +7053,13 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="4">
         <f>SUM(B4:B9)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ref="C11:L11" si="1">COUNTIF(C4:C9,"*ü*") * C3</f>
@@ -7035,7 +7075,7 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="1"/>
@@ -7062,12 +7102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
     </row>
   </sheetData>
@@ -7081,19 +7121,19 @@
   <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="19" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="19" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="25"/>
       <c r="B1" s="26" t="s">
         <v>114</v>
@@ -7150,7 +7190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
@@ -7162,7 +7202,7 @@
       </c>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="31"/>
       <c r="B3" s="29" t="s">
         <v>118</v>
@@ -7172,7 +7212,7 @@
       </c>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="31"/>
       <c r="B4" s="29" t="s">
         <v>119</v>
@@ -7183,7 +7223,7 @@
       <c r="D4" s="30"/>
       <c r="J4" s="46"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="31"/>
       <c r="B5" s="29" t="s">
         <v>120</v>
@@ -7197,7 +7237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
         <v>9</v>
       </c>
@@ -7207,9 +7247,11 @@
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="30"/>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="D6" s="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="31"/>
       <c r="B7" s="29" t="s">
         <v>118</v>
@@ -7217,9 +7259,11 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="30"/>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="D7" s="30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="31"/>
       <c r="B8" s="29" t="s">
         <v>121</v>
@@ -7227,10 +7271,12 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="30">
+        <v>4</v>
+      </c>
       <c r="J8" s="45"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="31"/>
       <c r="B9" s="29" t="s">
         <v>120</v>
@@ -7241,10 +7287,10 @@
       </c>
       <c r="D9" s="32">
         <f>SUM(D6:D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
         <v>10</v>
       </c>
@@ -7256,7 +7302,7 @@
       </c>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="31"/>
       <c r="B11" s="29" t="s">
         <v>118</v>
@@ -7266,7 +7312,7 @@
       </c>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="31"/>
       <c r="B12" s="29" t="s">
         <v>122</v>
@@ -7277,7 +7323,7 @@
       <c r="D12" s="30"/>
       <c r="J12" s="45"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="31"/>
       <c r="B13" s="33" t="s">
         <v>120</v>
@@ -7291,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="28" t="s">
         <v>11</v>
       </c>
@@ -7306,7 +7352,7 @@
       </c>
       <c r="E14" s="47"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="31"/>
       <c r="B15" s="29" t="s">
         <v>118</v>
@@ -7316,7 +7362,7 @@
       </c>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="31"/>
       <c r="B16" s="29" t="s">
         <v>123</v>
@@ -7327,7 +7373,7 @@
       <c r="D16" s="30"/>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="31"/>
       <c r="B17" s="33" t="s">
         <v>120</v>
@@ -7341,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="28" t="s">
         <v>12</v>
       </c>
@@ -7353,7 +7399,7 @@
       </c>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="31"/>
       <c r="B19" s="29" t="s">
         <v>118</v>
@@ -7363,7 +7409,7 @@
       </c>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="29" t="s">
         <v>124</v>
@@ -7374,7 +7420,7 @@
       <c r="D20" s="30"/>
       <c r="J20" s="45"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="33" t="s">
         <v>120</v>
@@ -7388,7 +7434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="28" t="s">
         <v>13</v>
       </c>
@@ -7400,7 +7446,7 @@
       </c>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="31"/>
       <c r="B23" s="29" t="s">
         <v>118</v>
@@ -7410,7 +7456,7 @@
       </c>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="31"/>
       <c r="B24" s="29" t="s">
         <v>125</v>
@@ -7421,7 +7467,7 @@
       <c r="D24" s="30"/>
       <c r="J24" s="45"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="31"/>
       <c r="B25" s="33" t="s">
         <v>120</v>
@@ -7435,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="28" t="s">
         <v>14</v>
       </c>
@@ -7447,7 +7493,7 @@
       </c>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="31"/>
       <c r="B27" s="29" t="s">
         <v>118</v>
@@ -7457,7 +7503,7 @@
       </c>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="31"/>
       <c r="B28" s="29" t="s">
         <v>126</v>
@@ -7468,7 +7514,7 @@
       <c r="D28" s="30"/>
       <c r="J28" s="45"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="31"/>
       <c r="B29" s="33" t="s">
         <v>120</v>
@@ -7482,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.95" thickBot="1">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34"/>
       <c r="B30" s="35" t="s">
         <v>0</v>
@@ -7493,15 +7539,15 @@
       </c>
       <c r="D30" s="37">
         <f>SUM(D5,D9,D13,D25,D21,D17,D29)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B31" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="10:10">
+    <row r="37" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J37" s="45"/>
     </row>
   </sheetData>
@@ -7515,15 +7561,15 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -7547,66 +7593,72 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="C2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="C5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="4">
-        <f>SUM(B2:B7)</f>
+        <f t="shared" ref="B8:H8" si="0">SUM(B2:B7)</f>
         <v>0</v>
       </c>
       <c r="C8" s="4">
-        <f>SUM(C2:C7)</f>
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D8" s="4">
-        <f>SUM(D2:D7)</f>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="4">
-        <f>SUM(E2:E7)</f>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <f>SUM(F2:F7)</f>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <f>SUM(G2:G7)</f>
-        <v>0</v>
-      </c>
       <c r="H8" s="4">
-        <f>SUM(H2:H7)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/doc/MB LLC Gantt.xlsx
+++ b/doc/MB LLC Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\Banana_tactics-main (54)\Banana_tactics-main\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC26539-2FA6-461D-A78B-9435BD7087DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271A2CE3-1663-47DF-8641-3F06FE464FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -742,6 +742,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,13 +757,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2966,7 +2966,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:U11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -2994,32 +2994,32 @@
   <sheetData>
     <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="54"/>
       <c r="F2" s="6"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="51"/>
-      <c r="K2" s="49" t="s">
+      <c r="H2" s="53"/>
+      <c r="I2" s="54"/>
+      <c r="K2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-      <c r="O2" s="49" t="s">
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="O2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="51"/>
-      <c r="S2" s="49" t="s">
+      <c r="P2" s="53"/>
+      <c r="Q2" s="54"/>
+      <c r="S2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="50"/>
-      <c r="U2" s="51"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="54"/>
     </row>
     <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="7" t="s">
@@ -6799,7 +6799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
@@ -6841,7 +6841,7 @@
       <c r="E2" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="51" t="s">
         <v>136</v>
       </c>
       <c r="G2" s="5"/>
@@ -6891,7 +6891,7 @@
       <c r="E4" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="49" t="s">
         <v>134</v>
       </c>
       <c r="G4" s="3"/>
@@ -6972,7 +6972,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="53"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>

--- a/doc/MB LLC Gantt.xlsx
+++ b/doc/MB LLC Gantt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brent\Desktop\Banana_tactics-main (54)\Banana_tactics-main\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271A2CE3-1663-47DF-8641-3F06FE464FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DB91FF-A0CD-4B4E-B252-9BC5348AA141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12216" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Management Summary" sheetId="3" r:id="rId1"/>
@@ -6800,7 +6800,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
